--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDvKhamChuaBenh.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDvKhamChuaBenh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vhost\CSDLGia_ASP_new\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E279BC0C-750C-41D3-93B0-C972D0AD0A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA920B9-A415-4BC8-8CBD-D58BE976CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="4755" windowWidth="21420" windowHeight="10725" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="28800" windowHeight="15480" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,37 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Giá</t>
   </si>
   <si>
-    <t>Mã sản phẩm dịch vụ</t>
-  </si>
-  <si>
-    <t>Tên nhómMã sản phẩm dịch vụ</t>
-  </si>
-  <si>
-    <t>Đơn vị tính</t>
-  </si>
-  <si>
-    <t>KHAM</t>
-  </si>
-  <si>
-    <t>Giá khám bệnh</t>
-  </si>
-  <si>
-    <t>lần</t>
-  </si>
-  <si>
-    <t>50000</t>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>STT TT37
+(không có bỏ trống)</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Mã dịch vụ
+(không có bỏ trống</t>
+  </si>
+  <si>
+    <t>Tên dịch vụ</t>
+  </si>
+  <si>
+    <t>GIÁ DỊCH VỤ KHÁM CHỮA BỆNH</t>
+  </si>
+  <si>
+    <t>Áp dụng cho 1 vị trí</t>
+  </si>
+  <si>
+    <t>Bệnh viện hạng đặc biệt</t>
+  </si>
+  <si>
+    <t>Mã nhóm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +89,22 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -86,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,28 +122,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,50 +499,72 @@
     <col min="7" max="7" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDvKhamChuaBenh.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDvKhamChuaBenh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vhost\CSDLGia_ASP_new\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA920B9-A415-4BC8-8CBD-D58BE976CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDB6D6B-A533-4F3B-B313-C44CE96A08F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="28800" windowHeight="15480" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>Bệnh viện hạng đặc biệt</t>
   </si>
   <si>
-    <t>Mã nhóm</t>
+    <t>Mã nhóm (lấy trong danh mục nhóm của phần mềm)</t>
   </si>
 </sst>
 </file>
@@ -142,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -166,6 +166,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -485,7 +488,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +531,7 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
     </row>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDvKhamChuaBenh.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDvKhamChuaBenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDB6D6B-A533-4F3B-B313-C44CE96A08F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DAB52A-3710-45C6-AC32-9F24FDB19654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Giá</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Mã nhóm (lấy trong danh mục nhóm của phần mềm)</t>
+  </si>
+  <si>
+    <t>KHAMCHUABENH</t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +107,12 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3F4254"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,13 +172,13 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -488,7 +497,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +540,7 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -550,13 +559,47 @@
       <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDvKhamChuaBenh.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDvKhamChuaBenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DAB52A-3710-45C6-AC32-9F24FDB19654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0E0418-94BA-49E4-8C99-3B048490533F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
@@ -151,10 +151,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -175,10 +174,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -494,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A6" sqref="A6:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,90 +521,112 @@
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>100000</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>100000</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>100000</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6"/>
+      <c r="B6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7"/>
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDvKhamChuaBenh.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDvKhamChuaBenh.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0E0418-94BA-49E4-8C99-3B048490533F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424D43BC-1E5D-4CF5-BF77-813ED591EC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,26 +40,26 @@
     <t>Ghi chú</t>
   </si>
   <si>
+    <t>Tên dịch vụ</t>
+  </si>
+  <si>
+    <t>GIÁ DỊCH VỤ KHÁM CHỮA BỆNH</t>
+  </si>
+  <si>
+    <t>Áp dụng cho 1 vị trí</t>
+  </si>
+  <si>
+    <t>Bệnh viện hạng đặc biệt</t>
+  </si>
+  <si>
+    <t>Mã nhóm (lấy trong danh mục nhóm của phần mềm)</t>
+  </si>
+  <si>
+    <t>KHAMCHUABENH</t>
+  </si>
+  <si>
     <t>Mã dịch vụ
-(không có bỏ trống</t>
-  </si>
-  <si>
-    <t>Tên dịch vụ</t>
-  </si>
-  <si>
-    <t>GIÁ DỊCH VỤ KHÁM CHỮA BỆNH</t>
-  </si>
-  <si>
-    <t>Áp dụng cho 1 vị trí</t>
-  </si>
-  <si>
-    <t>Bệnh viện hạng đặc biệt</t>
-  </si>
-  <si>
-    <t>Mã nhóm (lấy trong danh mục nhóm của phần mềm)</t>
-  </si>
-  <si>
-    <t>KHAMCHUABENH</t>
+(không có bỏ trống)</t>
   </si>
 </sst>
 </file>
@@ -70,24 +70,18 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF3F4254"/>
+      <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -95,7 +89,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -103,14 +97,27 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF3F4254"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -123,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,36 +153,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,31 +516,32 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:K12"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="40.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -528,10 +549,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>0</v>
@@ -539,100 +560,106 @@
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="7">
         <v>100000</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E4" s="7">
         <v>100000</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E5" s="7">
         <v>100000</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="E3:E1048576" xr:uid="{A2EAB54C-9515-4EBE-A374-6BADA7182228}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
